--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Clec11a-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Clec11a-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>14.768619</v>
+        <v>0.022591</v>
       </c>
       <c r="H2">
-        <v>44.305857</v>
+        <v>0.067773</v>
       </c>
       <c r="I2">
-        <v>0.9736679609684162</v>
+        <v>0.001469689085715816</v>
       </c>
       <c r="J2">
-        <v>0.9736679609684162</v>
+        <v>0.001469689085715816</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N2">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q2">
-        <v>1661.667418845648</v>
+        <v>1.378990928676334</v>
       </c>
       <c r="R2">
-        <v>14955.00676961083</v>
+        <v>12.410918358087</v>
       </c>
       <c r="S2">
-        <v>0.3189067308207842</v>
+        <v>0.0003003476398428322</v>
       </c>
       <c r="T2">
-        <v>0.3189067308207842</v>
+        <v>0.0003003476398428322</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>14.768619</v>
+        <v>0.022591</v>
       </c>
       <c r="H3">
-        <v>44.305857</v>
+        <v>0.067773</v>
       </c>
       <c r="I3">
-        <v>0.9736679609684162</v>
+        <v>0.001469689085715816</v>
       </c>
       <c r="J3">
-        <v>0.9736679609684162</v>
+        <v>0.001469689085715816</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>318.943398</v>
       </c>
       <c r="O3">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P3">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q3">
-        <v>1570.117842542454</v>
+        <v>2.401750101406</v>
       </c>
       <c r="R3">
-        <v>14131.06058288208</v>
+        <v>21.615750912654</v>
       </c>
       <c r="S3">
-        <v>0.3013365625935214</v>
+        <v>0.000523107120901799</v>
       </c>
       <c r="T3">
-        <v>0.3013365625935214</v>
+        <v>0.0005231071209017991</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>14.768619</v>
+        <v>0.022591</v>
       </c>
       <c r="H4">
-        <v>44.305857</v>
+        <v>0.067773</v>
       </c>
       <c r="I4">
-        <v>0.9736679609684162</v>
+        <v>0.001469689085715816</v>
       </c>
       <c r="J4">
-        <v>0.9736679609684162</v>
+        <v>0.001469689085715816</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N4">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q4">
-        <v>1841.523550097318</v>
+        <v>2.967066005249333</v>
       </c>
       <c r="R4">
-        <v>16573.71195087586</v>
+        <v>26.703594047244</v>
       </c>
       <c r="S4">
-        <v>0.3534246675541106</v>
+        <v>0.0006462343249711846</v>
       </c>
       <c r="T4">
-        <v>0.3534246675541107</v>
+        <v>0.0006462343249711847</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,13 +705,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.399405</v>
+        <v>14.768619</v>
       </c>
       <c r="H5">
-        <v>1.198215</v>
+        <v>44.305857</v>
       </c>
       <c r="I5">
-        <v>0.02633203903158381</v>
+        <v>0.9607931545923257</v>
       </c>
       <c r="J5">
-        <v>0.02633203903158381</v>
+        <v>0.9607931545923256</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N5">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O5">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P5">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q5">
-        <v>44.93841133176</v>
+        <v>901.5002270849872</v>
       </c>
       <c r="R5">
-        <v>404.44570198584</v>
+        <v>8113.502043764885</v>
       </c>
       <c r="S5">
-        <v>0.008624566916072201</v>
+        <v>0.1963489823552746</v>
       </c>
       <c r="T5">
-        <v>0.008624566916072201</v>
+        <v>0.1963489823552746</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.399405</v>
+        <v>14.768619</v>
       </c>
       <c r="H6">
-        <v>1.198215</v>
+        <v>44.305857</v>
       </c>
       <c r="I6">
-        <v>0.02633203903158381</v>
+        <v>0.9607931545923257</v>
       </c>
       <c r="J6">
-        <v>0.02633203903158381</v>
+        <v>0.9607931545923256</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>318.943398</v>
       </c>
       <c r="O6">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P6">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q6">
-        <v>42.46252929273</v>
+        <v>1570.117842542454</v>
       </c>
       <c r="R6">
-        <v>382.16276363457</v>
+        <v>14131.06058288209</v>
       </c>
       <c r="S6">
-        <v>0.008149396350644933</v>
+        <v>0.3419755550788193</v>
       </c>
       <c r="T6">
-        <v>0.008149396350644935</v>
+        <v>0.3419755550788193</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>14.768619</v>
+      </c>
+      <c r="H7">
+        <v>44.305857</v>
+      </c>
+      <c r="I7">
+        <v>0.9607931545923257</v>
+      </c>
+      <c r="J7">
+        <v>0.9607931545923256</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>131.3384093333333</v>
+      </c>
+      <c r="N7">
+        <v>394.015228</v>
+      </c>
+      <c r="O7">
+        <v>0.4397081881141102</v>
+      </c>
+      <c r="P7">
+        <v>0.4397081881141103</v>
+      </c>
+      <c r="Q7">
+        <v>1939.686927510044</v>
+      </c>
+      <c r="R7">
+        <v>17457.18234759039</v>
+      </c>
+      <c r="S7">
+        <v>0.4224686171582318</v>
+      </c>
+      <c r="T7">
+        <v>0.4224686171582318</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.5800683333333333</v>
+      </c>
+      <c r="H8">
+        <v>1.740205</v>
+      </c>
+      <c r="I8">
+        <v>0.03773715632195847</v>
+      </c>
+      <c r="J8">
+        <v>0.03773715632195847</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>61.04160633333334</v>
+      </c>
+      <c r="N8">
+        <v>183.124819</v>
+      </c>
+      <c r="O8">
+        <v>0.2043613460574534</v>
+      </c>
+      <c r="P8">
+        <v>0.2043613460574534</v>
+      </c>
+      <c r="Q8">
+        <v>35.40830284976612</v>
+      </c>
+      <c r="R8">
+        <v>318.6747256478951</v>
+      </c>
+      <c r="S8">
+        <v>0.007712016062335971</v>
+      </c>
+      <c r="T8">
+        <v>0.007712016062335971</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.399405</v>
-      </c>
-      <c r="H7">
-        <v>1.198215</v>
-      </c>
-      <c r="I7">
-        <v>0.02633203903158381</v>
-      </c>
-      <c r="J7">
-        <v>0.02633203903158381</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>124.6916553333333</v>
-      </c>
-      <c r="N7">
-        <v>374.074966</v>
-      </c>
-      <c r="O7">
-        <v>0.3629827433189773</v>
-      </c>
-      <c r="P7">
-        <v>0.3629827433189773</v>
-      </c>
-      <c r="Q7">
-        <v>49.80247059841</v>
-      </c>
-      <c r="R7">
-        <v>448.2222353856901</v>
-      </c>
-      <c r="S7">
-        <v>0.009558075764866678</v>
-      </c>
-      <c r="T7">
-        <v>0.00955807576486668</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.5800683333333333</v>
+      </c>
+      <c r="H9">
+        <v>1.740205</v>
+      </c>
+      <c r="I9">
+        <v>0.03773715632195847</v>
+      </c>
+      <c r="J9">
+        <v>0.03773715632195847</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>106.314466</v>
+      </c>
+      <c r="N9">
+        <v>318.943398</v>
+      </c>
+      <c r="O9">
+        <v>0.3559304658284363</v>
+      </c>
+      <c r="P9">
+        <v>0.3559304658284363</v>
+      </c>
+      <c r="Q9">
+        <v>61.66965510184333</v>
+      </c>
+      <c r="R9">
+        <v>555.02689591659</v>
+      </c>
+      <c r="S9">
+        <v>0.0134318036287152</v>
+      </c>
+      <c r="T9">
+        <v>0.0134318036287152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.5800683333333333</v>
+      </c>
+      <c r="H10">
+        <v>1.740205</v>
+      </c>
+      <c r="I10">
+        <v>0.03773715632195847</v>
+      </c>
+      <c r="J10">
+        <v>0.03773715632195847</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>131.3384093333333</v>
+      </c>
+      <c r="N10">
+        <v>394.015228</v>
+      </c>
+      <c r="O10">
+        <v>0.4397081881141102</v>
+      </c>
+      <c r="P10">
+        <v>0.4397081881141103</v>
+      </c>
+      <c r="Q10">
+        <v>76.18525220463776</v>
+      </c>
+      <c r="R10">
+        <v>685.66726984174</v>
+      </c>
+      <c r="S10">
+        <v>0.0165933366309073</v>
+      </c>
+      <c r="T10">
+        <v>0.0165933366309073</v>
       </c>
     </row>
   </sheetData>
